--- a/century.xlsx
+++ b/century.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarantsev\Desktop\annual-vol-returns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FDEE2-69B6-47DA-AA5E-C7D6D944A265}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FAA353-6807-4EB1-BE9B-0DAD7ACEB63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="price" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -174,19 +174,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2034,7 +2034,7 @@
         <v>2024</v>
       </c>
       <c r="B99" s="6">
-        <v>8</v>
+        <v>7.9790319384858597</v>
       </c>
       <c r="C99" s="2">
         <v>5881.63</v>
@@ -2056,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358EE0D2-ECD2-46E9-9820-C86354AA38BC}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3679,7 +3679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C470D53-A55D-47EE-B2CB-A39FEC9CFC57}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
